--- a/Participants.xlsx
+++ b/Participants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP HP\OneDrive - Université Mohammed VI Polytechnique\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gradle\PI_Project\Integration\Integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94666F1B-C1B0-4545-AF43-BA733CED9041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81385E94-5D66-4AB9-B683-7C0C467C7043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -40,18 +40,9 @@
     <t>Equipe1</t>
   </si>
   <si>
-    <t>Equipe2</t>
-  </si>
-  <si>
     <t>Equipe3</t>
   </si>
   <si>
-    <t>Equipe4</t>
-  </si>
-  <si>
-    <t>Equipe5</t>
-  </si>
-  <si>
     <t>Equipe6</t>
   </si>
   <si>
@@ -64,9 +55,6 @@
     <t>Equipe9</t>
   </si>
   <si>
-    <t>Equipe10</t>
-  </si>
-  <si>
     <t>Equipe11</t>
   </si>
   <si>
@@ -79,24 +67,12 @@
     <t>Equipe14</t>
   </si>
   <si>
-    <t>Equipe15</t>
-  </si>
-  <si>
     <t>Wnypbztd</t>
   </si>
   <si>
-    <t>Steyajdr</t>
-  </si>
-  <si>
     <t>Vfrjzlsd</t>
   </si>
   <si>
-    <t>Zsqgsssf</t>
-  </si>
-  <si>
-    <t>Dlombymh</t>
-  </si>
-  <si>
     <t>Pavksynz</t>
   </si>
   <si>
@@ -109,9 +85,6 @@
     <t>Eplqqbej</t>
   </si>
   <si>
-    <t>Vrfvpmft</t>
-  </si>
-  <si>
     <t>Htzsjrnh</t>
   </si>
   <si>
@@ -124,99 +97,36 @@
     <t>Hawffdct</t>
   </si>
   <si>
-    <t>Tpefbcah</t>
-  </si>
-  <si>
     <t>outlook</t>
   </si>
   <si>
     <t>Equipe16</t>
   </si>
   <si>
-    <t>Equipe17</t>
-  </si>
-  <si>
     <t>Gderysnm</t>
   </si>
   <si>
-    <t>tryehnsh</t>
-  </si>
-  <si>
     <t>TALHI</t>
   </si>
   <si>
-    <t>ACHAKAR</t>
-  </si>
-  <si>
-    <t>AIT BELAISSAOUI</t>
-  </si>
-  <si>
     <t>ABDELLAOUI</t>
   </si>
   <si>
-    <t>AIT IJJOU</t>
-  </si>
-  <si>
-    <t>EL YAMANI</t>
-  </si>
-  <si>
-    <t>KAMI</t>
-  </si>
-  <si>
-    <t>EL MRABET</t>
-  </si>
-  <si>
     <t>HADDAD</t>
   </si>
   <si>
     <t>ROUAM</t>
   </si>
   <si>
-    <t>BOUHMID</t>
-  </si>
-  <si>
-    <t>ABOUED DIHAJ</t>
-  </si>
-  <si>
-    <t>AIT EL AOUAD</t>
-  </si>
-  <si>
     <t>CHAHBI</t>
   </si>
   <si>
-    <t>BENTOUMIA</t>
-  </si>
-  <si>
     <t>CHIBI</t>
   </si>
   <si>
-    <t>ERRAMLA</t>
-  </si>
-  <si>
-    <t>ZAIL</t>
-  </si>
-  <si>
-    <t>MAGGOURI</t>
-  </si>
-  <si>
-    <t>YOUSFI</t>
-  </si>
-  <si>
-    <t>EDDARKAOUI</t>
-  </si>
-  <si>
     <t>ID ALIOUA</t>
   </si>
   <si>
-    <t>EL ALAOUI</t>
-  </si>
-  <si>
-    <t>DERKAOUI</t>
-  </si>
-  <si>
-    <t>ZIGHEM</t>
-  </si>
-  <si>
     <t>NASSIF</t>
   </si>
   <si>
@@ -226,22 +136,40 @@
     <t>BOUHRIRA</t>
   </si>
   <si>
-    <t>RAZOKI</t>
-  </si>
-  <si>
-    <t>AZOUZI</t>
-  </si>
-  <si>
-    <t>EL QAQI</t>
-  </si>
-  <si>
     <t>LAABADI</t>
   </si>
   <si>
     <t>ELOUKI</t>
   </si>
   <si>
-    <t>SAHHAR</t>
+    <t>LYAFI</t>
+  </si>
+  <si>
+    <t>El YAMANI</t>
+  </si>
+  <si>
+    <t>AIT ELOUAD</t>
+  </si>
+  <si>
+    <t>MANGOURI</t>
+  </si>
+  <si>
+    <t>ABOUEDDIHAJ</t>
+  </si>
+  <si>
+    <t>AIT IJOU</t>
+  </si>
+  <si>
+    <t>EDDERKAOUI</t>
+  </si>
+  <si>
+    <t>AIMAD</t>
+  </si>
+  <si>
+    <t>BENTALEB</t>
+  </si>
+  <si>
+    <t>KHARROU</t>
   </si>
 </sst>
 </file>
@@ -337,7 +265,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,7 +282,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -674,13 +602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
@@ -704,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -718,348 +646,223 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
         <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
